--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ly86-Cd180.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ly86-Cd180.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,25 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Ly86</t>
   </si>
   <si>
     <t>Cd180</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.052292978955114</v>
+        <v>0.702862</v>
       </c>
       <c r="H2">
-        <v>0.052292978955114</v>
+        <v>1.405724</v>
       </c>
       <c r="I2">
-        <v>0.0001989357130790915</v>
+        <v>0.002523336240378947</v>
       </c>
       <c r="J2">
-        <v>0.0001989357130790915</v>
+        <v>0.001683640290439508</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.68115028694021</v>
+        <v>3.7074385</v>
       </c>
       <c r="N2">
-        <v>3.68115028694021</v>
+        <v>7.414877000000001</v>
       </c>
       <c r="O2">
-        <v>0.01702227897417801</v>
+        <v>0.01643869266670474</v>
       </c>
       <c r="P2">
-        <v>0.01702227897417801</v>
+        <v>0.01102144924648572</v>
       </c>
       <c r="Q2">
-        <v>0.1924983144855762</v>
+        <v>2.605817638987</v>
       </c>
       <c r="R2">
-        <v>0.1924983144855762</v>
+        <v>10.423270555948</v>
       </c>
       <c r="S2">
-        <v>3.386339205959328E-06</v>
+        <v>4.148034895034771E-05</v>
       </c>
       <c r="T2">
-        <v>3.386339205959328E-06</v>
+        <v>1.855615601041752E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.052292978955114</v>
+        <v>0.702862</v>
       </c>
       <c r="H3">
-        <v>0.052292978955114</v>
+        <v>1.405724</v>
       </c>
       <c r="I3">
-        <v>0.0001989357130790915</v>
+        <v>0.002523336240378947</v>
       </c>
       <c r="J3">
-        <v>0.0001989357130790915</v>
+        <v>0.001683640290439508</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>93.0225033230643</v>
+        <v>0.1290763333333333</v>
       </c>
       <c r="N3">
-        <v>93.0225033230643</v>
+        <v>0.387229</v>
       </c>
       <c r="O3">
-        <v>0.4301522293342108</v>
+        <v>0.0005723213410584701</v>
       </c>
       <c r="P3">
-        <v>0.4301522293342108</v>
+        <v>0.0005755759360900282</v>
       </c>
       <c r="Q3">
-        <v>4.864423808625023</v>
+        <v>0.09072284979933334</v>
       </c>
       <c r="R3">
-        <v>4.864423808625023</v>
+        <v>0.544337098796</v>
       </c>
       <c r="S3">
-        <v>8.557264047516214E-05</v>
+        <v>1.444159181035117E-06</v>
       </c>
       <c r="T3">
-        <v>8.557264047516214E-05</v>
+        <v>9.690628362086069E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.052292978955114</v>
+        <v>0.702862</v>
       </c>
       <c r="H4">
-        <v>0.052292978955114</v>
+        <v>1.405724</v>
       </c>
       <c r="I4">
-        <v>0.0001989357130790915</v>
+        <v>0.002523336240378947</v>
       </c>
       <c r="J4">
-        <v>0.0001989357130790915</v>
+        <v>0.001683640290439508</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.589280877753</v>
+        <v>99.99294666666667</v>
       </c>
       <c r="N4">
-        <v>117.589280877753</v>
+        <v>299.97884</v>
       </c>
       <c r="O4">
-        <v>0.5437532802111857</v>
+        <v>0.4433663077867728</v>
       </c>
       <c r="P4">
-        <v>0.5437532802111857</v>
+        <v>0.445887579804717</v>
       </c>
       <c r="Q4">
-        <v>6.149093790287327</v>
+        <v>70.28124248002666</v>
       </c>
       <c r="R4">
-        <v>6.149093790287327</v>
+        <v>421.68745488016</v>
       </c>
       <c r="S4">
-        <v>0.0001081719465379073</v>
+        <v>0.001118762272201371</v>
       </c>
       <c r="T4">
-        <v>0.0001081719465379073</v>
+        <v>0.0007507142943657831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.052292978955114</v>
+        <v>0.702862</v>
       </c>
       <c r="H5">
-        <v>0.052292978955114</v>
+        <v>1.405724</v>
       </c>
       <c r="I5">
-        <v>0.0001989357130790915</v>
+        <v>0.002523336240378947</v>
       </c>
       <c r="J5">
-        <v>0.0001989357130790915</v>
+        <v>0.001683640290439508</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.96190967995593</v>
+        <v>119.5459113333333</v>
       </c>
       <c r="N5">
-        <v>1.96190967995593</v>
+        <v>358.637734</v>
       </c>
       <c r="O5">
-        <v>0.009072211480425372</v>
+        <v>0.5300636803469029</v>
       </c>
       <c r="P5">
-        <v>0.009072211480425372</v>
+        <v>0.5330779705658836</v>
       </c>
       <c r="Q5">
-        <v>0.1025941016057699</v>
+        <v>84.02427833156933</v>
       </c>
       <c r="R5">
-        <v>0.1025941016057699</v>
+        <v>504.145669989416</v>
       </c>
       <c r="S5">
-        <v>1.804786860062742E-06</v>
+        <v>0.001337528894327982</v>
       </c>
       <c r="T5">
-        <v>1.804786860062742E-06</v>
+        <v>0.0008975115491904477</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.9063740936372</v>
+        <v>0.702862</v>
       </c>
       <c r="H6">
-        <v>75.9063740936372</v>
+        <v>1.405724</v>
       </c>
       <c r="I6">
-        <v>0.2887670383155565</v>
+        <v>0.002523336240378947</v>
       </c>
       <c r="J6">
-        <v>0.2887670383155565</v>
+        <v>0.001683640290439508</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.68115028694021</v>
+        <v>2.037491</v>
       </c>
       <c r="N6">
-        <v>3.68115028694021</v>
+        <v>6.112473</v>
       </c>
       <c r="O6">
-        <v>0.01702227897417801</v>
+        <v>0.009034185829428297</v>
       </c>
       <c r="P6">
-        <v>0.01702227897417801</v>
+        <v>0.009085560143481049</v>
       </c>
       <c r="Q6">
-        <v>279.4227707753835</v>
+        <v>1.432074999242</v>
       </c>
       <c r="R6">
-        <v>279.4227707753835</v>
+        <v>8.592449995452</v>
       </c>
       <c r="S6">
-        <v>0.004915473084754552</v>
+        <v>2.279628850571436E-05</v>
       </c>
       <c r="T6">
-        <v>0.004915473084754552</v>
+        <v>1.529681511877605E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.9063740936372</v>
+        <v>0.702862</v>
       </c>
       <c r="H7">
-        <v>75.9063740936372</v>
+        <v>1.405724</v>
       </c>
       <c r="I7">
-        <v>0.2887670383155565</v>
+        <v>0.002523336240378947</v>
       </c>
       <c r="J7">
-        <v>0.2887670383155565</v>
+        <v>0.001683640290439508</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>93.0225033230643</v>
+        <v>0.1183615</v>
       </c>
       <c r="N7">
-        <v>93.0225033230643</v>
+        <v>0.236723</v>
       </c>
       <c r="O7">
-        <v>0.4301522293342108</v>
+        <v>0.0005248120291328291</v>
       </c>
       <c r="P7">
-        <v>0.4301522293342108</v>
+        <v>0.0003518643033425692</v>
       </c>
       <c r="Q7">
-        <v>7061.000936367128</v>
+        <v>0.08319180061299999</v>
       </c>
       <c r="R7">
-        <v>7061.000936367128</v>
+        <v>0.332767202452</v>
       </c>
       <c r="S7">
-        <v>0.1242137852896741</v>
+        <v>1.32427721249768E-06</v>
       </c>
       <c r="T7">
-        <v>0.1242137852896741</v>
+        <v>5.924129178749785E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>75.9063740936372</v>
+        <v>0.024071</v>
       </c>
       <c r="H8">
-        <v>75.9063740936372</v>
+        <v>0.072213</v>
       </c>
       <c r="I8">
-        <v>0.2887670383155565</v>
+        <v>8.641700169046221E-05</v>
       </c>
       <c r="J8">
-        <v>0.2887670383155565</v>
+        <v>8.648974926337474E-05</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.589280877753</v>
+        <v>3.7074385</v>
       </c>
       <c r="N8">
-        <v>117.589280877753</v>
+        <v>7.414877000000001</v>
       </c>
       <c r="O8">
-        <v>0.5437532802111857</v>
+        <v>0.01643869266670474</v>
       </c>
       <c r="P8">
-        <v>0.5437532802111857</v>
+        <v>0.01102144924648572</v>
       </c>
       <c r="Q8">
-        <v>8925.775943708499</v>
+        <v>0.0892417521335</v>
       </c>
       <c r="R8">
-        <v>8925.775943708499</v>
+        <v>0.5354505128010001</v>
       </c>
       <c r="S8">
-        <v>0.157018024300953</v>
+        <v>1.420582531967612E-06</v>
       </c>
       <c r="T8">
-        <v>0.157018024300953</v>
+        <v>9.532423818475607E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,309 +962,1425 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>75.9063740936372</v>
+        <v>0.024071</v>
       </c>
       <c r="H9">
-        <v>75.9063740936372</v>
+        <v>0.072213</v>
       </c>
       <c r="I9">
-        <v>0.2887670383155565</v>
+        <v>8.641700169046221E-05</v>
       </c>
       <c r="J9">
-        <v>0.2887670383155565</v>
+        <v>8.648974926337474E-05</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.96190967995593</v>
+        <v>0.1290763333333333</v>
       </c>
       <c r="N9">
-        <v>1.96190967995593</v>
+        <v>0.387229</v>
       </c>
       <c r="O9">
-        <v>0.009072211480425372</v>
+        <v>0.0005723213410584701</v>
       </c>
       <c r="P9">
-        <v>0.009072211480425372</v>
+        <v>0.0005755759360900282</v>
       </c>
       <c r="Q9">
-        <v>148.9214501046629</v>
+        <v>0.003106996419666667</v>
       </c>
       <c r="R9">
-        <v>148.9214501046629</v>
+        <v>0.027962967777</v>
       </c>
       <c r="S9">
-        <v>0.002619755640174825</v>
+        <v>4.945829429773741E-08</v>
       </c>
       <c r="T9">
-        <v>0.002619755640174825</v>
+        <v>4.978141839445875E-08</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>186.905039728628</v>
+        <v>0.024071</v>
       </c>
       <c r="H10">
-        <v>186.905039728628</v>
+        <v>0.072213</v>
       </c>
       <c r="I10">
-        <v>0.7110340259713644</v>
+        <v>8.641700169046221E-05</v>
       </c>
       <c r="J10">
-        <v>0.7110340259713644</v>
+        <v>8.648974926337474E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.68115028694021</v>
+        <v>99.99294666666667</v>
       </c>
       <c r="N10">
-        <v>3.68115028694021</v>
+        <v>299.97884</v>
       </c>
       <c r="O10">
-        <v>0.01702227897417801</v>
+        <v>0.4433663077867728</v>
       </c>
       <c r="P10">
-        <v>0.01702227897417801</v>
+        <v>0.445887579804717</v>
       </c>
       <c r="Q10">
-        <v>688.0255406276103</v>
+        <v>2.406930219213333</v>
       </c>
       <c r="R10">
-        <v>688.0255406276103</v>
+        <v>21.66237197292</v>
       </c>
       <c r="S10">
-        <v>0.0121034195502175</v>
+        <v>3.831438696950353E-05</v>
       </c>
       <c r="T10">
-        <v>0.0121034195502175</v>
+        <v>3.856470497696297E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>186.905039728628</v>
+        <v>0.024071</v>
       </c>
       <c r="H11">
-        <v>186.905039728628</v>
+        <v>0.072213</v>
       </c>
       <c r="I11">
-        <v>0.7110340259713644</v>
+        <v>8.641700169046221E-05</v>
       </c>
       <c r="J11">
-        <v>0.7110340259713644</v>
+        <v>8.648974926337474E-05</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>93.0225033230643</v>
+        <v>119.5459113333333</v>
       </c>
       <c r="N11">
-        <v>93.0225033230643</v>
+        <v>358.637734</v>
       </c>
       <c r="O11">
-        <v>0.4301522293342108</v>
+        <v>0.5300636803469029</v>
       </c>
       <c r="P11">
-        <v>0.4301522293342108</v>
+        <v>0.5330779705658836</v>
       </c>
       <c r="Q11">
-        <v>17386.37467925376</v>
+        <v>2.877589631704667</v>
       </c>
       <c r="R11">
-        <v>17386.37467925376</v>
+        <v>25.898306685342</v>
       </c>
       <c r="S11">
-        <v>0.3058528714040616</v>
+        <v>4.580651396059093E-05</v>
       </c>
       <c r="T11">
-        <v>0.3058528714040616</v>
+        <v>4.610578001207193E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>186.905039728628</v>
+        <v>0.024071</v>
       </c>
       <c r="H12">
-        <v>186.905039728628</v>
+        <v>0.072213</v>
       </c>
       <c r="I12">
-        <v>0.7110340259713644</v>
+        <v>8.641700169046221E-05</v>
       </c>
       <c r="J12">
-        <v>0.7110340259713644</v>
+        <v>8.648974926337474E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>117.589280877753</v>
+        <v>2.037491</v>
       </c>
       <c r="N12">
-        <v>117.589280877753</v>
+        <v>6.112473</v>
       </c>
       <c r="O12">
-        <v>0.5437532802111857</v>
+        <v>0.009034185829428297</v>
       </c>
       <c r="P12">
-        <v>0.5437532802111857</v>
+        <v>0.009085560143481049</v>
       </c>
       <c r="Q12">
-        <v>21978.02921411722</v>
+        <v>0.049044445861</v>
       </c>
       <c r="R12">
-        <v>21978.02921411722</v>
+        <v>0.441400012749</v>
       </c>
       <c r="S12">
-        <v>0.3866270839636948</v>
+        <v>7.807072520936549E-07</v>
       </c>
       <c r="T12">
-        <v>0.3866270839636948</v>
+        <v>7.858078187269869E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.024071</v>
+      </c>
+      <c r="H13">
+        <v>0.072213</v>
+      </c>
+      <c r="I13">
+        <v>8.641700169046221E-05</v>
+      </c>
+      <c r="J13">
+        <v>8.648974926337474E-05</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.1183615</v>
+      </c>
+      <c r="N13">
+        <v>0.236723</v>
+      </c>
+      <c r="O13">
+        <v>0.0005248120291328291</v>
+      </c>
+      <c r="P13">
+        <v>0.0003518643033425692</v>
+      </c>
+      <c r="Q13">
+        <v>0.0028490796665</v>
+      </c>
+      <c r="R13">
+        <v>0.017094477999</v>
+      </c>
+      <c r="S13">
+        <v>4.535268200874659E-08</v>
+      </c>
+      <c r="T13">
+        <v>3.043265537083084E-08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>90.03339900000002</v>
+      </c>
+      <c r="H14">
+        <v>270.100197</v>
+      </c>
+      <c r="I14">
+        <v>0.3232278008217797</v>
+      </c>
+      <c r="J14">
+        <v>0.3234999004960066</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.7074385</v>
+      </c>
+      <c r="N14">
+        <v>7.414877000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.01643869266670474</v>
+      </c>
+      <c r="P14">
+        <v>0.01102144924648572</v>
+      </c>
+      <c r="Q14">
+        <v>333.7932897384616</v>
+      </c>
+      <c r="R14">
+        <v>2002.759738430769</v>
+      </c>
+      <c r="S14">
+        <v>0.00531344247904409</v>
+      </c>
+      <c r="T14">
+        <v>0.003565437734559919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>90.03339900000002</v>
+      </c>
+      <c r="H15">
+        <v>270.100197</v>
+      </c>
+      <c r="I15">
+        <v>0.3232278008217797</v>
+      </c>
+      <c r="J15">
+        <v>0.3234999004960066</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1290763333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.387229</v>
+      </c>
+      <c r="O15">
+        <v>0.0005723213410584701</v>
+      </c>
+      <c r="P15">
+        <v>0.0005755759360900282</v>
+      </c>
+      <c r="Q15">
+        <v>11.621181020457</v>
+      </c>
+      <c r="R15">
+        <v>104.590629184113</v>
+      </c>
+      <c r="S15">
+        <v>0.000184990168433701</v>
+      </c>
+      <c r="T15">
+        <v>0.00018619875805302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>90.03339900000002</v>
+      </c>
+      <c r="H16">
+        <v>270.100197</v>
+      </c>
+      <c r="I16">
+        <v>0.3232278008217797</v>
+      </c>
+      <c r="J16">
+        <v>0.3234999004960066</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>99.99294666666667</v>
+      </c>
+      <c r="N16">
+        <v>299.97884</v>
+      </c>
+      <c r="O16">
+        <v>0.4433663077867728</v>
+      </c>
+      <c r="P16">
+        <v>0.445887579804717</v>
+      </c>
+      <c r="Q16">
+        <v>9002.704864425721</v>
+      </c>
+      <c r="R16">
+        <v>81024.34377983148</v>
+      </c>
+      <c r="S16">
+        <v>0.1433083166243909</v>
+      </c>
+      <c r="T16">
+        <v>0.1442445876992312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>90.03339900000002</v>
+      </c>
+      <c r="H17">
+        <v>270.100197</v>
+      </c>
+      <c r="I17">
+        <v>0.3232278008217797</v>
+      </c>
+      <c r="J17">
+        <v>0.3234999004960066</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>119.5459113333333</v>
+      </c>
+      <c r="N17">
+        <v>358.637734</v>
+      </c>
+      <c r="O17">
+        <v>0.5300636803469029</v>
+      </c>
+      <c r="P17">
+        <v>0.5330779705658836</v>
+      </c>
+      <c r="Q17">
+        <v>10763.12473389262</v>
+      </c>
+      <c r="R17">
+        <v>96868.12260503361</v>
+      </c>
+      <c r="S17">
+        <v>0.1713313176940282</v>
+      </c>
+      <c r="T17">
+        <v>0.1724506704346765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>186.905039728628</v>
-      </c>
-      <c r="H13">
-        <v>186.905039728628</v>
-      </c>
-      <c r="I13">
-        <v>0.7110340259713644</v>
-      </c>
-      <c r="J13">
-        <v>0.7110340259713644</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.96190967995593</v>
-      </c>
-      <c r="N13">
-        <v>1.96190967995593</v>
-      </c>
-      <c r="O13">
-        <v>0.009072211480425372</v>
-      </c>
-      <c r="P13">
-        <v>0.009072211480425372</v>
-      </c>
-      <c r="Q13">
-        <v>366.6908066761429</v>
-      </c>
-      <c r="R13">
-        <v>366.6908066761429</v>
-      </c>
-      <c r="S13">
-        <v>0.006450651053390485</v>
-      </c>
-      <c r="T13">
-        <v>0.006450651053390485</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>90.03339900000002</v>
+      </c>
+      <c r="H18">
+        <v>270.100197</v>
+      </c>
+      <c r="I18">
+        <v>0.3232278008217797</v>
+      </c>
+      <c r="J18">
+        <v>0.3234999004960066</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.037491</v>
+      </c>
+      <c r="N18">
+        <v>6.112473</v>
+      </c>
+      <c r="O18">
+        <v>0.009034185829428297</v>
+      </c>
+      <c r="P18">
+        <v>0.009085560143481049</v>
+      </c>
+      <c r="Q18">
+        <v>183.442240161909</v>
+      </c>
+      <c r="R18">
+        <v>1650.980161457181</v>
+      </c>
+      <c r="S18">
+        <v>0.002920100017861394</v>
+      </c>
+      <c r="T18">
+        <v>0.002939177802366603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>90.03339900000002</v>
+      </c>
+      <c r="H19">
+        <v>270.100197</v>
+      </c>
+      <c r="I19">
+        <v>0.3232278008217797</v>
+      </c>
+      <c r="J19">
+        <v>0.3234999004960066</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.1183615</v>
+      </c>
+      <c r="N19">
+        <v>0.236723</v>
+      </c>
+      <c r="O19">
+        <v>0.0005248120291328291</v>
+      </c>
+      <c r="P19">
+        <v>0.0003518643033425692</v>
+      </c>
+      <c r="Q19">
+        <v>10.6564881557385</v>
+      </c>
+      <c r="R19">
+        <v>63.938928934431</v>
+      </c>
+      <c r="S19">
+        <v>0.0001696338380214201</v>
+      </c>
+      <c r="T19">
+        <v>0.0001138280671194178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>187.0269876666667</v>
+      </c>
+      <c r="H20">
+        <v>561.080963</v>
+      </c>
+      <c r="I20">
+        <v>0.6714432931474549</v>
+      </c>
+      <c r="J20">
+        <v>0.6720085276379992</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.7074385</v>
+      </c>
+      <c r="N20">
+        <v>7.414877000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.01643869266670474</v>
+      </c>
+      <c r="P20">
+        <v>0.01102144924648572</v>
+      </c>
+      <c r="Q20">
+        <v>693.3910546144252</v>
+      </c>
+      <c r="R20">
+        <v>4160.346327686551</v>
+      </c>
+      <c r="S20">
+        <v>0.01103764993917115</v>
+      </c>
+      <c r="T20">
+        <v>0.007406507880567807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>187.0269876666667</v>
+      </c>
+      <c r="H21">
+        <v>561.080963</v>
+      </c>
+      <c r="I21">
+        <v>0.6714432931474549</v>
+      </c>
+      <c r="J21">
+        <v>0.6720085276379992</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1290763333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.387229</v>
+      </c>
+      <c r="O21">
+        <v>0.0005723213410584701</v>
+      </c>
+      <c r="P21">
+        <v>0.0005755759360900282</v>
+      </c>
+      <c r="Q21">
+        <v>24.14075780239189</v>
+      </c>
+      <c r="R21">
+        <v>217.266820221527</v>
+      </c>
+      <c r="S21">
+        <v>0.0003842813259788668</v>
+      </c>
+      <c r="T21">
+        <v>0.000386791937355723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>187.0269876666667</v>
+      </c>
+      <c r="H22">
+        <v>561.080963</v>
+      </c>
+      <c r="I22">
+        <v>0.6714432931474549</v>
+      </c>
+      <c r="J22">
+        <v>0.6720085276379992</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>99.99294666666667</v>
+      </c>
+      <c r="N22">
+        <v>299.97884</v>
+      </c>
+      <c r="O22">
+        <v>0.4433663077867728</v>
+      </c>
+      <c r="P22">
+        <v>0.445887579804717</v>
+      </c>
+      <c r="Q22">
+        <v>18701.37960298032</v>
+      </c>
+      <c r="R22">
+        <v>168312.4164268229</v>
+      </c>
+      <c r="S22">
+        <v>0.2976953337709788</v>
+      </c>
+      <c r="T22">
+        <v>0.2996402559966388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>187.0269876666667</v>
+      </c>
+      <c r="H23">
+        <v>561.080963</v>
+      </c>
+      <c r="I23">
+        <v>0.6714432931474549</v>
+      </c>
+      <c r="J23">
+        <v>0.6720085276379992</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>119.5459113333333</v>
+      </c>
+      <c r="N23">
+        <v>358.637734</v>
+      </c>
+      <c r="O23">
+        <v>0.5300636803469029</v>
+      </c>
+      <c r="P23">
+        <v>0.5330779705658836</v>
+      </c>
+      <c r="Q23">
+        <v>22358.31168453976</v>
+      </c>
+      <c r="R23">
+        <v>201224.8051608579</v>
+      </c>
+      <c r="S23">
+        <v>0.3559077031099843</v>
+      </c>
+      <c r="T23">
+        <v>0.3582329421162321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>187.0269876666667</v>
+      </c>
+      <c r="H24">
+        <v>561.080963</v>
+      </c>
+      <c r="I24">
+        <v>0.6714432931474549</v>
+      </c>
+      <c r="J24">
+        <v>0.6720085276379992</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.037491</v>
+      </c>
+      <c r="N24">
+        <v>6.112473</v>
+      </c>
+      <c r="O24">
+        <v>0.009034185829428297</v>
+      </c>
+      <c r="P24">
+        <v>0.009085560143481049</v>
+      </c>
+      <c r="Q24">
+        <v>381.0658041279443</v>
+      </c>
+      <c r="R24">
+        <v>3429.592237151499</v>
+      </c>
+      <c r="S24">
+        <v>0.006065943484217406</v>
+      </c>
+      <c r="T24">
+        <v>0.006105573894787189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>187.0269876666667</v>
+      </c>
+      <c r="H25">
+        <v>561.080963</v>
+      </c>
+      <c r="I25">
+        <v>0.6714432931474549</v>
+      </c>
+      <c r="J25">
+        <v>0.6720085276379992</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.1183615</v>
+      </c>
+      <c r="N25">
+        <v>0.236723</v>
+      </c>
+      <c r="O25">
+        <v>0.0005248120291328291</v>
+      </c>
+      <c r="P25">
+        <v>0.0003518643033425692</v>
+      </c>
+      <c r="Q25">
+        <v>22.13679480070816</v>
+      </c>
+      <c r="R25">
+        <v>132.820768804249</v>
+      </c>
+      <c r="S25">
+        <v>0.0003523815171243448</v>
+      </c>
+      <c r="T25">
+        <v>0.0002364558124176103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.7574056666666666</v>
+      </c>
+      <c r="H26">
+        <v>2.272217</v>
+      </c>
+      <c r="I26">
+        <v>0.002719152788695899</v>
+      </c>
+      <c r="J26">
+        <v>0.002721441826291354</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.7074385</v>
+      </c>
+      <c r="N26">
+        <v>7.414877000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.01643869266670474</v>
+      </c>
+      <c r="P26">
+        <v>0.01102144924648572</v>
+      </c>
+      <c r="Q26">
+        <v>2.808034928718167</v>
+      </c>
+      <c r="R26">
+        <v>16.848209572309</v>
+      </c>
+      <c r="S26">
+        <v>4.469931700718502E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.999423296573358E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.7574056666666666</v>
+      </c>
+      <c r="H27">
+        <v>2.272217</v>
+      </c>
+      <c r="I27">
+        <v>0.002719152788695899</v>
+      </c>
+      <c r="J27">
+        <v>0.002721441826291354</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.1290763333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.387229</v>
+      </c>
+      <c r="O27">
+        <v>0.0005723213410584701</v>
+      </c>
+      <c r="P27">
+        <v>0.0005755759360900282</v>
+      </c>
+      <c r="Q27">
+        <v>0.09776314629922223</v>
+      </c>
+      <c r="R27">
+        <v>0.879868316693</v>
+      </c>
+      <c r="S27">
+        <v>1.556229170569316E-06</v>
+      </c>
+      <c r="T27">
+        <v>1.566396426682202E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.7574056666666666</v>
+      </c>
+      <c r="H28">
+        <v>2.272217</v>
+      </c>
+      <c r="I28">
+        <v>0.002719152788695899</v>
+      </c>
+      <c r="J28">
+        <v>0.002721441826291354</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>99.99294666666667</v>
+      </c>
+      <c r="N28">
+        <v>299.97884</v>
+      </c>
+      <c r="O28">
+        <v>0.4433663077867728</v>
+      </c>
+      <c r="P28">
+        <v>0.445887579804717</v>
+      </c>
+      <c r="Q28">
+        <v>75.73522443203112</v>
+      </c>
+      <c r="R28">
+        <v>681.61701988828</v>
+      </c>
+      <c r="S28">
+        <v>0.001205580732232208</v>
+      </c>
+      <c r="T28">
+        <v>0.001213457109504381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.7574056666666666</v>
+      </c>
+      <c r="H29">
+        <v>2.272217</v>
+      </c>
+      <c r="I29">
+        <v>0.002719152788695899</v>
+      </c>
+      <c r="J29">
+        <v>0.002721441826291354</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>119.5459113333333</v>
+      </c>
+      <c r="N29">
+        <v>358.637734</v>
+      </c>
+      <c r="O29">
+        <v>0.5300636803469029</v>
+      </c>
+      <c r="P29">
+        <v>0.5330779705658836</v>
+      </c>
+      <c r="Q29">
+        <v>90.54475067069755</v>
+      </c>
+      <c r="R29">
+        <v>814.902756036278</v>
+      </c>
+      <c r="S29">
+        <v>0.001441324134601693</v>
+      </c>
+      <c r="T29">
+        <v>0.001450740685772507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.7574056666666666</v>
+      </c>
+      <c r="H30">
+        <v>2.272217</v>
+      </c>
+      <c r="I30">
+        <v>0.002719152788695899</v>
+      </c>
+      <c r="J30">
+        <v>0.002721441826291354</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.037491</v>
+      </c>
+      <c r="N30">
+        <v>6.112473</v>
+      </c>
+      <c r="O30">
+        <v>0.009034185829428297</v>
+      </c>
+      <c r="P30">
+        <v>0.009085560143481049</v>
+      </c>
+      <c r="Q30">
+        <v>1.543207229182333</v>
+      </c>
+      <c r="R30">
+        <v>13.888865062641</v>
+      </c>
+      <c r="S30">
+        <v>2.456533159168693E-05</v>
+      </c>
+      <c r="T30">
+        <v>2.4725823389755E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.7574056666666666</v>
+      </c>
+      <c r="H31">
+        <v>2.272217</v>
+      </c>
+      <c r="I31">
+        <v>0.002719152788695899</v>
+      </c>
+      <c r="J31">
+        <v>0.002721441826291354</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.1183615</v>
+      </c>
+      <c r="N31">
+        <v>0.236723</v>
+      </c>
+      <c r="O31">
+        <v>0.0005248120291328291</v>
+      </c>
+      <c r="P31">
+        <v>0.0003518643033425692</v>
+      </c>
+      <c r="Q31">
+        <v>0.08964767081516666</v>
+      </c>
+      <c r="R31">
+        <v>0.537886024891</v>
+      </c>
+      <c r="S31">
+        <v>1.427044092557686E-06</v>
+      </c>
+      <c r="T31">
+        <v>9.575782322953366E-07</v>
       </c>
     </row>
   </sheetData>
